--- a/Diagramas de flujo.xlsx
+++ b/Diagramas de flujo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\godot\drive-download-20240624T202136Z-001\Diagramas de flujo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -7841,7 +7836,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-AR" sz="1600"/>
-            <a:t>N</a:t>
+            <a:t>S</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11726,7 +11721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11736,16 +11731,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView topLeftCell="P3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -11791,7 +11786,7 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11837,7 +11832,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11883,7 +11878,7 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11929,7 +11924,7 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11973,7 +11968,7 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -12015,7 +12010,7 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -12057,7 +12052,7 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -12097,7 +12092,7 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -12135,7 +12130,7 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -12173,7 +12168,7 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -12211,7 +12206,7 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -12249,7 +12244,7 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -12287,7 +12282,7 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -12327,7 +12322,7 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -12367,7 +12362,7 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -12411,7 +12406,7 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -12455,7 +12450,7 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12499,7 +12494,7 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12539,7 +12534,7 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12579,7 +12574,7 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12617,7 +12612,7 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12655,7 +12650,7 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12684,7 +12679,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -12713,7 +12708,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -12742,7 +12737,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -12771,7 +12766,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -12800,7 +12795,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -12829,7 +12824,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -12858,7 +12853,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -12887,7 +12882,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -12916,7 +12911,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -12945,7 +12940,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -12974,7 +12969,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -13003,7 +12998,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -13043,13 +13038,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
         <v>16</v>
@@ -13072,7 +13067,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -13095,7 +13090,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -13118,7 +13113,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>32</v>
       </c>
@@ -13141,7 +13136,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -13160,7 +13155,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -13179,7 +13174,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -13198,7 +13193,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -13217,7 +13212,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -13236,7 +13231,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -13255,7 +13250,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -13274,7 +13269,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -13293,7 +13288,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -13312,7 +13307,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -13331,7 +13326,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -13350,7 +13345,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -13369,7 +13364,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -13388,7 +13383,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -13407,7 +13402,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
         <v>22</v>
@@ -13428,7 +13423,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
@@ -13449,7 +13444,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>19</v>
       </c>
@@ -13470,7 +13465,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -13489,7 +13484,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -13499,7 +13494,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -13509,7 +13504,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -13519,7 +13514,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -13529,7 +13524,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -13539,7 +13534,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -13549,7 +13544,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -13559,7 +13554,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -13569,7 +13564,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -13579,7 +13574,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -13589,7 +13584,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -13599,7 +13594,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -13609,7 +13604,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -13619,7 +13614,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -13639,13 +13634,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>23</v>
@@ -13673,7 +13668,7 @@
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
@@ -13701,7 +13696,7 @@
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
@@ -13729,7 +13724,7 @@
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
@@ -13757,7 +13752,7 @@
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
@@ -13785,7 +13780,7 @@
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
@@ -13813,7 +13808,7 @@
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
@@ -13841,7 +13836,7 @@
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -13867,7 +13862,7 @@
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -13891,7 +13886,7 @@
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -13915,7 +13910,7 @@
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -13939,7 +13934,7 @@
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -13963,7 +13958,7 @@
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -13987,7 +13982,7 @@
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -14011,7 +14006,7 @@
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -14035,7 +14030,7 @@
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -14059,7 +14054,7 @@
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -14083,7 +14078,7 @@
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -14107,7 +14102,7 @@
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -14131,7 +14126,7 @@
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -14155,7 +14150,7 @@
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -14179,7 +14174,7 @@
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -14203,7 +14198,7 @@
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -14227,7 +14222,7 @@
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -14251,7 +14246,7 @@
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -14275,7 +14270,7 @@
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -14299,7 +14294,7 @@
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -14323,7 +14318,7 @@
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -14347,7 +14342,7 @@
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -14371,7 +14366,7 @@
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -14395,7 +14390,7 @@
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -14419,7 +14414,7 @@
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -14443,7 +14438,7 @@
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -14467,7 +14462,7 @@
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -14491,7 +14486,7 @@
       <c r="U34" s="14"/>
       <c r="V34" s="14"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -14515,7 +14510,7 @@
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
